--- a/DSA_500.xlsx
+++ b/DSA_500.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\DSA_cracker 500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F7980F-6553-445C-9275-B0621F596E53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6738A7D-A419-4967-AFC7-74A96740B085}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="492">
   <si>
     <t>Topic:</t>
   </si>
@@ -1477,6 +1477,30 @@
   </si>
   <si>
     <t>sort array using comparator, then you need to take care of maxrange of right side! And see when you hit the maximum… and then push_back that to new vector by checking!</t>
+  </si>
+  <si>
+    <t>Added comment in code (used GFG code…, check and prep for merge sort again)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take 3 pointers and increment the minimum of the element index… for duplicate array </t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/rearrange-array-alternating-positive-negative-items-o1-extra-space/</t>
+  </si>
+  <si>
+    <t>read set 1 approach</t>
+  </si>
+  <si>
+    <t>added comments in code</t>
+  </si>
+  <si>
+    <t>Use sorting or hashing (question links to arcticle itself)</t>
+  </si>
+  <si>
+    <t>approach almost same as ques 17 -&gt; see the arcticle too , also see valley-peak approach</t>
+  </si>
+  <si>
+    <t>atmost 2 transaction! Hence this to be taken care of!!</t>
   </si>
 </sst>
 </file>
@@ -1963,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1973,7 +1997,7 @@
     <col min="3" max="3" width="107.90625" customWidth="1"/>
     <col min="4" max="4" width="22.26953125" customWidth="1"/>
     <col min="5" max="5" width="85.08984375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="47.26953125" style="20" customWidth="1"/>
     <col min="7" max="27" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2172,7 +2196,9 @@
       <c r="E13" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="25" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18">
@@ -2188,6 +2214,9 @@
         <v>4</v>
       </c>
       <c r="E14" s="22"/>
+      <c r="F14" s="20" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18">
@@ -2319,10 +2348,15 @@
       <c r="C21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="22"/>
+      <c r="D21" s="26">
+        <v>44246</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18">
@@ -2334,10 +2368,15 @@
       <c r="C22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="22"/>
+      <c r="D22" s="26">
+        <v>44246</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
@@ -2349,10 +2388,15 @@
       <c r="C23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="22"/>
+      <c r="D23" s="26">
+        <v>44246</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18">
@@ -2364,10 +2408,15 @@
       <c r="C24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="22"/>
+      <c r="D24" s="26">
+        <v>44246</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18">
@@ -2379,10 +2428,15 @@
       <c r="C25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="22"/>
+      <c r="D25" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18">
@@ -2394,10 +2448,15 @@
       <c r="C26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="22"/>
+      <c r="D26" s="26">
+        <v>44251</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18">
@@ -2409,10 +2468,15 @@
       <c r="C27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="22"/>
+      <c r="D27" s="26">
+        <v>44251</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18">
@@ -2424,10 +2488,15 @@
       <c r="C28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="22"/>
+      <c r="D28" s="26">
+        <v>44251</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18">
@@ -2439,10 +2508,15 @@
       <c r="C29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="22"/>
+      <c r="D29" s="26">
+        <v>44251</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18">
@@ -2454,10 +2528,15 @@
       <c r="C30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="22"/>
+      <c r="D30" s="26">
+        <v>44251</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18">
@@ -2469,10 +2548,15 @@
       <c r="C31" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="22"/>
+      <c r="D31" s="26">
+        <v>44251</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="18">

--- a/DSA_500.xlsx
+++ b/DSA_500.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\DSA_cracker 500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6738A7D-A419-4967-AFC7-74A96740B085}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89021979-63AD-4A0C-BBC2-D28E1DF86C49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="503">
   <si>
     <t>Topic:</t>
   </si>
@@ -1501,13 +1501,46 @@
   </si>
   <si>
     <t>atmost 2 transaction! Hence this to be taken care of!!</t>
+  </si>
+  <si>
+    <t>used 2 hashmap to see if array is subset or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nice one purra hint dekha </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> set2 article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set 1 article       -&gt;sort and find min diff packets to chhose from </t>
+  </si>
+  <si>
+    <t>read this arcticle | make a window and add elements till sum is less then x, reduce window afterwards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arcticle | take 2 pointer start and end and just like quicksort partitioning swap the req. elements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arcticle | count the elements less then equal to k, then find the min sized win with min no of bad elements and all good elements </t>
+  </si>
+  <si>
+    <t>arcticle | we need to take 2 pointers, and only merge is allowed, if a[i] == a[j], cal i++,j--, if a[i]&lt;a[j] merge I and i+1 element -&gt; eventually you'll merge till one is left to make palindrone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do read the arcticle </t>
+  </si>
+  <si>
+    <t>binary search on both the array medians to do so, see the arcticle algo for O(logn)</t>
+  </si>
+  <si>
+    <t>didn't code it, but similar to above one, with edge cases as given in arcticle with complexity (O(min(Logm,logn))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1655,8 +1688,15 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1673,6 +1713,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1683,13 +1728,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1767,11 +1813,18 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="25" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1987,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1996,7 +2049,7 @@
     <col min="2" max="2" width="28.453125" customWidth="1"/>
     <col min="3" max="3" width="107.90625" customWidth="1"/>
     <col min="4" max="4" width="22.26953125" customWidth="1"/>
-    <col min="5" max="5" width="85.08984375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="143.6328125" style="20" customWidth="1"/>
     <col min="6" max="6" width="47.26953125" style="20" customWidth="1"/>
     <col min="7" max="27" width="10.54296875" customWidth="1"/>
   </cols>
@@ -2568,12 +2621,17 @@
       <c r="C32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="26">
+        <v>44252</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18">
         <v>28</v>
       </c>
@@ -2583,12 +2641,17 @@
       <c r="C33" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="22"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="26">
+        <v>44252</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18">
         <v>29</v>
       </c>
@@ -2598,12 +2661,17 @@
       <c r="C34" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="22"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="26">
+        <v>44252</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="18">
         <v>30</v>
       </c>
@@ -2613,12 +2681,17 @@
       <c r="C35" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="26">
+        <v>44252</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18">
         <v>31</v>
       </c>
@@ -2628,12 +2701,17 @@
       <c r="C36" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="26">
+        <v>44252</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="18">
         <v>32</v>
       </c>
@@ -2643,12 +2721,17 @@
       <c r="C37" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="26">
+        <v>44252</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18">
         <v>33</v>
       </c>
@@ -2658,12 +2741,17 @@
       <c r="C38" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="22"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="26">
+        <v>44252</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18">
         <v>34</v>
       </c>
@@ -2673,12 +2761,17 @@
       <c r="C39" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="22"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="26">
+        <v>44252</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18">
         <v>35</v>
       </c>
@@ -2688,12 +2781,17 @@
       <c r="C40" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="22"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="26">
+        <v>44252</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18">
         <v>36</v>
       </c>
@@ -2703,12 +2801,17 @@
       <c r="C41" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="30">
+        <v>44252</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18"/>
       <c r="B42" s="11"/>
       <c r="C42" s="16"/>
@@ -2717,7 +2820,7 @@
       </c>
       <c r="E42" s="22"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18"/>
       <c r="B43" s="13"/>
       <c r="C43" s="16"/>
@@ -2726,7 +2829,7 @@
       </c>
       <c r="E43" s="22"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18">
         <v>37</v>
       </c>
@@ -2741,7 +2844,7 @@
       </c>
       <c r="E44" s="22"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18">
         <v>38</v>
       </c>
@@ -2756,7 +2859,7 @@
       </c>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18">
         <v>39</v>
       </c>
@@ -2771,7 +2874,7 @@
       </c>
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18">
         <v>40</v>
       </c>
@@ -2786,7 +2889,7 @@
       </c>
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18">
         <v>41</v>
       </c>
@@ -9598,8 +9701,15 @@
     <hyperlink ref="C480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
     <hyperlink ref="C481" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
     <hyperlink ref="F17" r:id="rId446" xr:uid="{C2E4287D-6D0A-4CAD-870C-B3BEC3470BD9}"/>
+    <hyperlink ref="F35" r:id="rId447" xr:uid="{0526C445-85B2-43EE-927C-8E2A81BE67E6}"/>
+    <hyperlink ref="E35" r:id="rId448" display="set 1 article" xr:uid="{11425440-26AB-4CBC-8BE8-9F65717EC925}"/>
+    <hyperlink ref="E36" r:id="rId449" display="read this arcticle " xr:uid="{2E897128-5632-4045-8E5B-09FF43ABA268}"/>
+    <hyperlink ref="E37" r:id="rId450" xr:uid="{585BCAD9-624C-4E4C-8B2E-85CC93D5C85C}"/>
+    <hyperlink ref="E38" r:id="rId451" xr:uid="{0B7F77DD-BCAE-4285-9306-046E33CA76F0}"/>
+    <hyperlink ref="E39" r:id="rId452" xr:uid="{098DEF08-8658-40AF-9B02-65804B2DB8DE}"/>
+    <hyperlink ref="E40" r:id="rId453" xr:uid="{1654F358-DE23-4651-AD55-63A368DE090D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId447"/>
+  <pageSetup orientation="landscape" r:id="rId454"/>
 </worksheet>
 </file>
--- a/DSA_500.xlsx
+++ b/DSA_500.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\DSA_cracker 500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89021979-63AD-4A0C-BBC2-D28E1DF86C49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B156F31-B1CA-401D-B013-C03B8995CB98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="507">
   <si>
     <t>Topic:</t>
   </si>
@@ -1533,14 +1533,26 @@
     <t>binary search on both the array medians to do so, see the arcticle algo for O(logn)</t>
   </si>
   <si>
-    <t>didn't code it, but similar to above one, with edge cases as given in arcticle with complexity (O(min(Logm,logn))</t>
+    <t>didn't code it, but similar to above one, with edge cases as given in arcticle with complexity (O(min(Logm,logn)), multiple base cases !!</t>
+  </si>
+  <si>
+    <t>really imp one</t>
+  </si>
+  <si>
+    <t>snake move (O(n+m))</t>
+  </si>
+  <si>
+    <t>arcticle | we can use method of merging k sorted arrays! -&gt; using min heap and hence we can maintain the solution in O(N2logn)</t>
+  </si>
+  <si>
+    <t>again with heaps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1688,15 +1700,8 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1713,11 +1718,6 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1728,14 +1728,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1816,15 +1815,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="16" fontId="25" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2040,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2085,9 +2080,7 @@
       <c r="A5" s="18"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="D5" s="12"/>
       <c r="E5" s="22"/>
       <c r="F5" s="20" t="s">
         <v>468</v>
@@ -2801,7 +2794,7 @@
       <c r="C41" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="26">
         <v>44252</v>
       </c>
       <c r="E41" s="22" t="s">
@@ -2815,18 +2808,14 @@
       <c r="A42" s="18"/>
       <c r="B42" s="11"/>
       <c r="C42" s="16"/>
-      <c r="D42" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="D42" s="12"/>
       <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18"/>
       <c r="B43" s="13"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="D43" s="12"/>
       <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2839,10 +2828,15 @@
       <c r="C44" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="22"/>
+      <c r="D44" s="26">
+        <v>44253</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18">
@@ -2854,10 +2848,15 @@
       <c r="C45" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="22"/>
+      <c r="D45" s="26">
+        <v>44253</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18">
@@ -2884,10 +2883,15 @@
       <c r="C47" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="22"/>
+      <c r="D47" s="26">
+        <v>44253</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18">
@@ -2899,10 +2903,15 @@
       <c r="C48" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="22"/>
+      <c r="D48" s="26">
+        <v>44253</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18">
@@ -9708,8 +9717,9 @@
     <hyperlink ref="E38" r:id="rId451" xr:uid="{0B7F77DD-BCAE-4285-9306-046E33CA76F0}"/>
     <hyperlink ref="E39" r:id="rId452" xr:uid="{098DEF08-8658-40AF-9B02-65804B2DB8DE}"/>
     <hyperlink ref="E40" r:id="rId453" xr:uid="{1654F358-DE23-4651-AD55-63A368DE090D}"/>
+    <hyperlink ref="E48" r:id="rId454" xr:uid="{228086FD-2CAB-4B2C-A5C9-498A90756123}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId454"/>
+  <pageSetup orientation="landscape" r:id="rId455"/>
 </worksheet>
 </file>